--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Jag2-Notch4.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Jag2-Notch4.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.00567309947927</v>
+        <v>12.97098566666667</v>
       </c>
       <c r="H2">
-        <v>5.00567309947927</v>
+        <v>38.91295700000001</v>
       </c>
       <c r="I2">
-        <v>0.5177989704817396</v>
+        <v>0.7291028508134716</v>
       </c>
       <c r="J2">
-        <v>0.5177989704817396</v>
+        <v>0.7291028508134717</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.4246363064874</v>
+        <v>30.020559</v>
       </c>
       <c r="N2">
-        <v>14.4246363064874</v>
+        <v>90.061677</v>
       </c>
       <c r="O2">
-        <v>0.8321182582891892</v>
+        <v>0.8829766276144534</v>
       </c>
       <c r="P2">
-        <v>0.8321182582891892</v>
+        <v>0.8829766276144534</v>
       </c>
       <c r="Q2">
-        <v>72.205013929156</v>
+        <v>389.3962404943211</v>
       </c>
       <c r="R2">
-        <v>72.205013929156</v>
+        <v>3504.56616444889</v>
       </c>
       <c r="S2">
-        <v>0.4308699774612004</v>
+        <v>0.643780776395363</v>
       </c>
       <c r="T2">
-        <v>0.4308699774612004</v>
+        <v>0.6437807763953631</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.00567309947927</v>
+        <v>12.97098566666667</v>
       </c>
       <c r="H3">
-        <v>5.00567309947927</v>
+        <v>38.91295700000001</v>
       </c>
       <c r="I3">
-        <v>0.5177989704817396</v>
+        <v>0.7291028508134716</v>
       </c>
       <c r="J3">
-        <v>0.5177989704817396</v>
+        <v>0.7291028508134717</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.40516621203162</v>
+        <v>1.426936666666667</v>
       </c>
       <c r="N3">
-        <v>1.40516621203162</v>
+        <v>4.28081</v>
       </c>
       <c r="O3">
-        <v>0.08106023861667132</v>
+        <v>0.04196962907162197</v>
       </c>
       <c r="P3">
-        <v>0.08106023861667132</v>
+        <v>0.04196962907162197</v>
       </c>
       <c r="Q3">
-        <v>7.033802707863864</v>
+        <v>18.50877505057445</v>
       </c>
       <c r="R3">
-        <v>7.033802707863864</v>
+        <v>166.57897545517</v>
       </c>
       <c r="S3">
-        <v>0.04197290810271656</v>
+        <v>0.03060017620370353</v>
       </c>
       <c r="T3">
-        <v>0.04197290810271656</v>
+        <v>0.03060017620370354</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.00567309947927</v>
+        <v>12.97098566666667</v>
       </c>
       <c r="H4">
-        <v>5.00567309947927</v>
+        <v>38.91295700000001</v>
       </c>
       <c r="I4">
-        <v>0.5177989704817396</v>
+        <v>0.7291028508134716</v>
       </c>
       <c r="J4">
-        <v>0.5177989704817396</v>
+        <v>0.7291028508134717</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.558421719974567</v>
+        <v>1.067853</v>
       </c>
       <c r="N4">
-        <v>0.558421719974567</v>
+        <v>3.203559</v>
       </c>
       <c r="O4">
-        <v>0.03221383882012373</v>
+        <v>0.03140811737476231</v>
       </c>
       <c r="P4">
-        <v>0.03221383882012373</v>
+        <v>0.0314081173747623</v>
       </c>
       <c r="Q4">
-        <v>2.795276581841636</v>
+        <v>13.85110595710701</v>
       </c>
       <c r="R4">
-        <v>2.795276581841636</v>
+        <v>124.659953613963</v>
       </c>
       <c r="S4">
-        <v>0.01668029257632477</v>
+        <v>0.02289974791662333</v>
       </c>
       <c r="T4">
-        <v>0.01668029257632477</v>
+        <v>0.02289974791662333</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.00567309947927</v>
+        <v>12.97098566666667</v>
       </c>
       <c r="H5">
-        <v>5.00567309947927</v>
+        <v>38.91295700000001</v>
       </c>
       <c r="I5">
-        <v>0.5177989704817396</v>
+        <v>0.7291028508134716</v>
       </c>
       <c r="J5">
-        <v>0.5177989704817396</v>
+        <v>0.7291028508134717</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.946615086080339</v>
+        <v>1.483919333333333</v>
       </c>
       <c r="N5">
-        <v>0.946615086080339</v>
+        <v>4.451758</v>
       </c>
       <c r="O5">
-        <v>0.05460766427401575</v>
+        <v>0.04364562593916237</v>
       </c>
       <c r="P5">
-        <v>0.05460766427401575</v>
+        <v>0.04364562593916237</v>
       </c>
       <c r="Q5">
-        <v>4.738445671953606</v>
+        <v>19.24789640315623</v>
       </c>
       <c r="R5">
-        <v>4.738445671953606</v>
+        <v>173.231067628406</v>
       </c>
       <c r="S5">
-        <v>0.02827579234149783</v>
+        <v>0.03182215029778169</v>
       </c>
       <c r="T5">
-        <v>0.02827579234149783</v>
+        <v>0.0318221502977817</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9432936425815041</v>
+        <v>1.047813333333333</v>
       </c>
       <c r="H6">
-        <v>0.9432936425815041</v>
+        <v>3.14344</v>
       </c>
       <c r="I6">
-        <v>0.09757658306561887</v>
+        <v>0.05889789011308234</v>
       </c>
       <c r="J6">
-        <v>0.09757658306561887</v>
+        <v>0.05889789011308236</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.4246363064874</v>
+        <v>30.020559</v>
       </c>
       <c r="N6">
-        <v>14.4246363064874</v>
+        <v>90.061677</v>
       </c>
       <c r="O6">
-        <v>0.8321182582891892</v>
+        <v>0.8829766276144534</v>
       </c>
       <c r="P6">
-        <v>0.8321182582891892</v>
+        <v>0.8829766276144534</v>
       </c>
       <c r="Q6">
-        <v>13.60666772445991</v>
+        <v>31.45594199432</v>
       </c>
       <c r="R6">
-        <v>13.60666772445991</v>
+        <v>283.10347794888</v>
       </c>
       <c r="S6">
-        <v>0.08119525635037317</v>
+        <v>0.05200546038565611</v>
       </c>
       <c r="T6">
-        <v>0.08119525635037317</v>
+        <v>0.05200546038565611</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.9432936425815041</v>
+        <v>1.047813333333333</v>
       </c>
       <c r="H7">
-        <v>0.9432936425815041</v>
+        <v>3.14344</v>
       </c>
       <c r="I7">
-        <v>0.09757658306561887</v>
+        <v>0.05889789011308234</v>
       </c>
       <c r="J7">
-        <v>0.09757658306561887</v>
+        <v>0.05889789011308236</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.40516621203162</v>
+        <v>1.426936666666667</v>
       </c>
       <c r="N7">
-        <v>1.40516621203162</v>
+        <v>4.28081</v>
       </c>
       <c r="O7">
-        <v>0.08106023861667132</v>
+        <v>0.04196962907162197</v>
       </c>
       <c r="P7">
-        <v>0.08106023861667132</v>
+        <v>0.04196962907162197</v>
       </c>
       <c r="Q7">
-        <v>1.325484354579761</v>
+        <v>1.495163265155555</v>
       </c>
       <c r="R7">
-        <v>1.325484354579761</v>
+        <v>13.4564693864</v>
       </c>
       <c r="S7">
-        <v>0.007909581106698515</v>
+        <v>0.002471922601147217</v>
       </c>
       <c r="T7">
-        <v>0.007909581106698515</v>
+        <v>0.002471922601147218</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.9432936425815041</v>
+        <v>1.047813333333333</v>
       </c>
       <c r="H8">
-        <v>0.9432936425815041</v>
+        <v>3.14344</v>
       </c>
       <c r="I8">
-        <v>0.09757658306561887</v>
+        <v>0.05889789011308234</v>
       </c>
       <c r="J8">
-        <v>0.09757658306561887</v>
+        <v>0.05889789011308236</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.558421719974567</v>
+        <v>1.067853</v>
       </c>
       <c r="N8">
-        <v>0.558421719974567</v>
+        <v>3.203559</v>
       </c>
       <c r="O8">
-        <v>0.03221383882012373</v>
+        <v>0.03140811737476231</v>
       </c>
       <c r="P8">
-        <v>0.03221383882012373</v>
+        <v>0.0314081173747623</v>
       </c>
       <c r="Q8">
-        <v>0.526755658331438</v>
+        <v>1.11891061144</v>
       </c>
       <c r="R8">
-        <v>0.526755658331438</v>
+        <v>10.07019550296</v>
       </c>
       <c r="S8">
-        <v>0.003143316319494261</v>
+        <v>0.001849871845797543</v>
       </c>
       <c r="T8">
-        <v>0.003143316319494261</v>
+        <v>0.001849871845797543</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.9432936425815041</v>
+        <v>1.047813333333333</v>
       </c>
       <c r="H9">
-        <v>0.9432936425815041</v>
+        <v>3.14344</v>
       </c>
       <c r="I9">
-        <v>0.09757658306561887</v>
+        <v>0.05889789011308234</v>
       </c>
       <c r="J9">
-        <v>0.09757658306561887</v>
+        <v>0.05889789011308236</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.946615086080339</v>
+        <v>1.483919333333333</v>
       </c>
       <c r="N9">
-        <v>0.946615086080339</v>
+        <v>4.451758</v>
       </c>
       <c r="O9">
-        <v>0.05460766427401575</v>
+        <v>0.04364562593916237</v>
       </c>
       <c r="P9">
-        <v>0.05460766427401575</v>
+        <v>0.04364562593916237</v>
       </c>
       <c r="Q9">
-        <v>0.892935992671327</v>
+        <v>1.554870463057778</v>
       </c>
       <c r="R9">
-        <v>0.892935992671327</v>
+        <v>13.99383416752</v>
       </c>
       <c r="S9">
-        <v>0.005328429289052926</v>
+        <v>0.002570635280481482</v>
       </c>
       <c r="T9">
-        <v>0.005328429289052926</v>
+        <v>0.002570635280481483</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.27155760860455</v>
+        <v>1.312552</v>
       </c>
       <c r="H10">
-        <v>1.27155760860455</v>
+        <v>3.937656</v>
       </c>
       <c r="I10">
-        <v>0.1315330041652444</v>
+        <v>0.07377892703252469</v>
       </c>
       <c r="J10">
-        <v>0.1315330041652444</v>
+        <v>0.0737789270325247</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.4246363064874</v>
+        <v>30.020559</v>
       </c>
       <c r="N10">
-        <v>14.4246363064874</v>
+        <v>90.061677</v>
       </c>
       <c r="O10">
-        <v>0.8321182582891892</v>
+        <v>0.8829766276144534</v>
       </c>
       <c r="P10">
-        <v>0.8321182582891892</v>
+        <v>0.8829766276144534</v>
       </c>
       <c r="Q10">
-        <v>18.34175604686749</v>
+        <v>39.403544756568</v>
       </c>
       <c r="R10">
-        <v>18.34175604686749</v>
+        <v>354.631902809112</v>
       </c>
       <c r="S10">
-        <v>0.1094510143335278</v>
+        <v>0.06514506818019147</v>
       </c>
       <c r="T10">
-        <v>0.1094510143335278</v>
+        <v>0.06514506818019149</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.27155760860455</v>
+        <v>1.312552</v>
       </c>
       <c r="H11">
-        <v>1.27155760860455</v>
+        <v>3.937656</v>
       </c>
       <c r="I11">
-        <v>0.1315330041652444</v>
+        <v>0.07377892703252469</v>
       </c>
       <c r="J11">
-        <v>0.1315330041652444</v>
+        <v>0.0737789270325247</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.40516621203162</v>
+        <v>1.426936666666667</v>
       </c>
       <c r="N11">
-        <v>1.40516621203162</v>
+        <v>4.28081</v>
       </c>
       <c r="O11">
-        <v>0.08106023861667132</v>
+        <v>0.04196962907162197</v>
       </c>
       <c r="P11">
-        <v>0.08106023861667132</v>
+        <v>0.04196962907162197</v>
       </c>
       <c r="Q11">
-        <v>1.786749788262841</v>
+        <v>1.872928575706666</v>
       </c>
       <c r="R11">
-        <v>1.786749788262841</v>
+        <v>16.85635718136</v>
       </c>
       <c r="S11">
-        <v>0.01066209670360233</v>
+        <v>0.003096474200857324</v>
       </c>
       <c r="T11">
-        <v>0.01066209670360233</v>
+        <v>0.003096474200857325</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.27155760860455</v>
+        <v>1.312552</v>
       </c>
       <c r="H12">
-        <v>1.27155760860455</v>
+        <v>3.937656</v>
       </c>
       <c r="I12">
-        <v>0.1315330041652444</v>
+        <v>0.07377892703252469</v>
       </c>
       <c r="J12">
-        <v>0.1315330041652444</v>
+        <v>0.0737789270325247</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.558421719974567</v>
+        <v>1.067853</v>
       </c>
       <c r="N12">
-        <v>0.558421719974567</v>
+        <v>3.203559</v>
       </c>
       <c r="O12">
-        <v>0.03221383882012373</v>
+        <v>0.03140811737476231</v>
       </c>
       <c r="P12">
-        <v>0.03221383882012373</v>
+        <v>0.0314081173747623</v>
       </c>
       <c r="Q12">
-        <v>0.7100653868437</v>
+        <v>1.401612590856</v>
       </c>
       <c r="R12">
-        <v>0.7100653868437</v>
+        <v>12.614513317704</v>
       </c>
       <c r="S12">
-        <v>0.004237182995705848</v>
+        <v>0.002317257200021559</v>
       </c>
       <c r="T12">
-        <v>0.004237182995705848</v>
+        <v>0.002317257200021559</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.27155760860455</v>
+        <v>1.312552</v>
       </c>
       <c r="H13">
-        <v>1.27155760860455</v>
+        <v>3.937656</v>
       </c>
       <c r="I13">
-        <v>0.1315330041652444</v>
+        <v>0.07377892703252469</v>
       </c>
       <c r="J13">
-        <v>0.1315330041652444</v>
+        <v>0.0737789270325247</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.946615086080339</v>
+        <v>1.483919333333333</v>
       </c>
       <c r="N13">
-        <v>0.946615086080339</v>
+        <v>4.451758</v>
       </c>
       <c r="O13">
-        <v>0.05460766427401575</v>
+        <v>0.04364562593916237</v>
       </c>
       <c r="P13">
-        <v>0.05460766427401575</v>
+        <v>0.04364562593916237</v>
       </c>
       <c r="Q13">
-        <v>1.203675615125306</v>
+        <v>1.947721288805333</v>
       </c>
       <c r="R13">
-        <v>1.203675615125306</v>
+        <v>17.529491599248</v>
       </c>
       <c r="S13">
-        <v>0.007182710132408382</v>
+        <v>0.003220127451454328</v>
       </c>
       <c r="T13">
-        <v>0.007182710132408382</v>
+        <v>0.003220127451454328</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.44668895959327</v>
+        <v>2.458986333333333</v>
       </c>
       <c r="H14">
-        <v>2.44668895959327</v>
+        <v>7.376958999999999</v>
       </c>
       <c r="I14">
-        <v>0.2530914422873971</v>
+        <v>0.1382203320409214</v>
       </c>
       <c r="J14">
-        <v>0.2530914422873971</v>
+        <v>0.1382203320409214</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.4246363064874</v>
+        <v>30.020559</v>
       </c>
       <c r="N14">
-        <v>14.4246363064874</v>
+        <v>90.061677</v>
       </c>
       <c r="O14">
-        <v>0.8321182582891892</v>
+        <v>0.8829766276144534</v>
       </c>
       <c r="P14">
-        <v>0.8321182582891892</v>
+        <v>0.8829766276144534</v>
       </c>
       <c r="Q14">
-        <v>35.29259839723097</v>
+        <v>73.82014430002701</v>
       </c>
       <c r="R14">
-        <v>35.29259839723097</v>
+        <v>664.381298700243</v>
       </c>
       <c r="S14">
-        <v>0.2106020101440877</v>
+        <v>0.1220453226532427</v>
       </c>
       <c r="T14">
-        <v>0.2106020101440877</v>
+        <v>0.1220453226532427</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.44668895959327</v>
+        <v>2.458986333333333</v>
       </c>
       <c r="H15">
-        <v>2.44668895959327</v>
+        <v>7.376958999999999</v>
       </c>
       <c r="I15">
-        <v>0.2530914422873971</v>
+        <v>0.1382203320409214</v>
       </c>
       <c r="J15">
-        <v>0.2530914422873971</v>
+        <v>0.1382203320409214</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.40516621203162</v>
+        <v>1.426936666666667</v>
       </c>
       <c r="N15">
-        <v>1.40516621203162</v>
+        <v>4.28081</v>
       </c>
       <c r="O15">
-        <v>0.08106023861667132</v>
+        <v>0.04196962907162197</v>
       </c>
       <c r="P15">
-        <v>0.08106023861667132</v>
+        <v>0.04196962907162197</v>
       </c>
       <c r="Q15">
-        <v>3.438004657371261</v>
+        <v>3.508817761865555</v>
       </c>
       <c r="R15">
-        <v>3.438004657371261</v>
+        <v>31.57935985679</v>
       </c>
       <c r="S15">
-        <v>0.02051565270365391</v>
+        <v>0.005801056065913894</v>
       </c>
       <c r="T15">
-        <v>0.02051565270365391</v>
+        <v>0.005801056065913896</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.44668895959327</v>
+        <v>2.458986333333333</v>
       </c>
       <c r="H16">
-        <v>2.44668895959327</v>
+        <v>7.376958999999999</v>
       </c>
       <c r="I16">
-        <v>0.2530914422873971</v>
+        <v>0.1382203320409214</v>
       </c>
       <c r="J16">
-        <v>0.2530914422873971</v>
+        <v>0.1382203320409214</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.558421719974567</v>
+        <v>1.067853</v>
       </c>
       <c r="N16">
-        <v>0.558421719974567</v>
+        <v>3.203559</v>
       </c>
       <c r="O16">
-        <v>0.03221383882012373</v>
+        <v>0.03140811737476231</v>
       </c>
       <c r="P16">
-        <v>0.03221383882012373</v>
+        <v>0.0314081173747623</v>
       </c>
       <c r="Q16">
-        <v>1.366284257058858</v>
+        <v>2.625835933009</v>
       </c>
       <c r="R16">
-        <v>1.366284257058858</v>
+        <v>23.632523397081</v>
       </c>
       <c r="S16">
-        <v>0.008153046928598858</v>
+        <v>0.004341240412319878</v>
       </c>
       <c r="T16">
-        <v>0.008153046928598858</v>
+        <v>0.004341240412319878</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.44668895959327</v>
+        <v>2.458986333333333</v>
       </c>
       <c r="H17">
-        <v>2.44668895959327</v>
+        <v>7.376958999999999</v>
       </c>
       <c r="I17">
-        <v>0.2530914422873971</v>
+        <v>0.1382203320409214</v>
       </c>
       <c r="J17">
-        <v>0.2530914422873971</v>
+        <v>0.1382203320409214</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.946615086080339</v>
+        <v>1.483919333333333</v>
       </c>
       <c r="N17">
-        <v>0.946615086080339</v>
+        <v>4.451758</v>
       </c>
       <c r="O17">
-        <v>0.05460766427401575</v>
+        <v>0.04364562593916237</v>
       </c>
       <c r="P17">
-        <v>0.05460766427401575</v>
+        <v>0.04364562593916237</v>
       </c>
       <c r="Q17">
-        <v>2.316072680097198</v>
+        <v>3.648937360435778</v>
       </c>
       <c r="R17">
-        <v>2.316072680097198</v>
+        <v>32.840436243922</v>
       </c>
       <c r="S17">
-        <v>0.01382073251105661</v>
+        <v>0.006032712909444873</v>
       </c>
       <c r="T17">
-        <v>0.01382073251105661</v>
+        <v>0.006032712909444874</v>
       </c>
     </row>
   </sheetData>
